--- a/Assignment 1/final_plot-w.xlsx
+++ b/Assignment 1/final_plot-w.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF361C3A-7472-4881-93F5-F7189E01EE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE76BB03-C43F-4376-9AF6-C6FED7E6661C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>train_average_accuracy</t>
   </si>
@@ -62,13 +65,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -76,7 +79,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -84,7 +87,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -93,7 +96,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -102,7 +105,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -111,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -119,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -127,7 +130,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -135,7 +138,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -143,7 +146,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -152,7 +155,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -161,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -169,7 +172,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -178,7 +181,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -186,7 +189,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -195,7 +198,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -204,7 +207,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -212,7 +215,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -574,52 +577,52 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="เซลล์ที่มีลิงก์" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="ข้อความอธิบาย" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="ชื่อเรื่อง" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="ดี" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ป้อนค่า" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="ปานกลาง" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ผลรวม" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="หมายเหตุ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,7 +640,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -673,6 +676,32 @@
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ของช่วง</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>W </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>ที่ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>[ -4 , -5 ]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -700,7 +729,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4639,7 +4668,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4677,7 +4706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="239252239"/>
@@ -4762,7 +4791,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4794,7 +4823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="390496207"/>
@@ -4836,7 +4865,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4873,7 +4902,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4887,7 +4916,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4919,7 +4948,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="th-TH"/>
-              <a:t>แผนภูมิแท่งเปรียบเทียบควาแม่นยำ</a:t>
+              <a:t>ตารางเปรียบเทียบควาแม่นยำ</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4950,7 +4979,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5012,7 +5041,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5135,7 +5164,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5283,7 +5312,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5321,7 +5350,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407475216"/>
@@ -5406,7 +5435,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5438,7 +5467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1409433248"/>
@@ -5481,7 +5510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5518,7 +5547,648 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ตารางเปรียบเทียบความแม่นยำ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final_plot!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_average_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>final_plot!$B$43:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[0,1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[4,5]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-4,-5]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final_plot!$C$43:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>98.886899999999983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.800299999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.817599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A03-460F-B205-434ED50A8C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final_plot!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_average_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>final_plot!$B$43:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[0,1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[4,5]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-4,-5]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final_plot!$E$43:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A03-460F-B205-434ED50A8C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="548830432"/>
+        <c:axId val="548832072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="548830432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ช่วงของ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weight</a:t>
+                </a:r>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548832072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="548832072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ความแม่นยำ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548830432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5570,6 +6240,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6628,6 +7338,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6702,11 +7915,113 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88D6265-4F61-439C-A1AA-6A5F868E35CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="final_plot"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>train_average_accuracy</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>test_average_accuracy</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>0.1</v>
+          </cell>
+          <cell r="C43">
+            <v>98.2834</v>
+          </cell>
+          <cell r="E43">
+            <v>97</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>0.3</v>
+          </cell>
+          <cell r="C44">
+            <v>98.756299999999982</v>
+          </cell>
+          <cell r="E44">
+            <v>97.5</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>0.5</v>
+          </cell>
+          <cell r="C45">
+            <v>98.851700000000008</v>
+          </cell>
+          <cell r="E45">
+            <v>97.5</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>0.8</v>
+          </cell>
+          <cell r="C46">
+            <v>98.886899999999983</v>
+          </cell>
+          <cell r="E46">
+            <v>98.5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7004,13 +8319,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7025,7 +8340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -7072,7 +8387,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -7122,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>5</v>
@@ -7173,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
@@ -7213,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -7249,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J8" s="1">
         <v>4</v>
       </c>
@@ -7285,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J9" s="1">
         <v>5</v>
       </c>
@@ -7321,7 +8636,7 @@
         <v>0.65359477124183007</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J10" s="1">
         <v>6</v>
       </c>
@@ -7357,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J11" s="1">
         <v>7</v>
       </c>
@@ -7393,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J12" s="1">
         <v>8</v>
       </c>
@@ -7429,7 +8744,7 @@
         <v>0.64935064935064934</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J13" s="1">
         <v>9</v>
       </c>
@@ -7465,7 +8780,7 @@
         <v>1.2903225806451613</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J14" s="1">
         <v>10</v>
       </c>
@@ -7501,7 +8816,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J15" s="1">
         <v>11</v>
       </c>
@@ -7537,7 +8852,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J16" s="1">
         <v>12</v>
       </c>
@@ -7573,7 +8888,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="17" spans="10:19">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J17" s="1">
         <v>13</v>
       </c>
@@ -7609,7 +8924,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="18" spans="10:19">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J18" s="1">
         <v>14</v>
       </c>
@@ -7645,7 +8960,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="19" spans="10:19">
+    <row r="19" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J19" s="1">
         <v>15</v>
       </c>
@@ -7681,7 +8996,7 @@
         <v>6.0975609756097562</v>
       </c>
     </row>
-    <row r="20" spans="10:19">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J20" s="1">
         <v>16</v>
       </c>
@@ -7717,7 +9032,7 @@
         <v>6.0606060606060606</v>
       </c>
     </row>
-    <row r="21" spans="10:19">
+    <row r="21" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J21" s="1">
         <v>17</v>
       </c>
@@ -7753,7 +9068,7 @@
         <v>7.1428571428571432</v>
       </c>
     </row>
-    <row r="22" spans="10:19">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J22" s="1">
         <v>18</v>
       </c>
@@ -7789,7 +9104,7 @@
         <v>9.8837209302325579</v>
       </c>
     </row>
-    <row r="23" spans="10:19">
+    <row r="23" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J23" s="1">
         <v>19</v>
       </c>
@@ -7825,7 +9140,7 @@
         <v>12.921348314606741</v>
       </c>
     </row>
-    <row r="24" spans="10:19">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J24" s="1">
         <v>20</v>
       </c>
@@ -7861,7 +9176,7 @@
         <v>16.48936170212766</v>
       </c>
     </row>
-    <row r="25" spans="10:19">
+    <row r="25" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J25" s="1">
         <v>21</v>
       </c>
@@ -7897,7 +9212,7 @@
         <v>7.8125</v>
       </c>
     </row>
-    <row r="26" spans="10:19">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J26" s="1">
         <v>22</v>
       </c>
@@ -7933,7 +9248,7 @@
         <v>3.3816425120772946</v>
       </c>
     </row>
-    <row r="27" spans="10:19">
+    <row r="27" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J27" s="1">
         <v>23</v>
       </c>
@@ -7969,7 +9284,7 @@
         <v>1.3392857142857142</v>
       </c>
     </row>
-    <row r="28" spans="10:19">
+    <row r="28" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J28" s="1">
         <v>24</v>
       </c>
@@ -8005,7 +9320,7 @@
         <v>3.7974683544303796</v>
       </c>
     </row>
-    <row r="29" spans="10:19">
+    <row r="29" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J29" s="1">
         <v>25</v>
       </c>
@@ -8041,7 +9356,7 @@
         <v>3.2520325203252032</v>
       </c>
     </row>
-    <row r="30" spans="10:19">
+    <row r="30" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J30" s="1">
         <v>26</v>
       </c>
@@ -8077,7 +9392,7 @@
         <v>3.4749034749034751</v>
       </c>
     </row>
-    <row r="31" spans="10:19">
+    <row r="31" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J31" s="1">
         <v>27</v>
       </c>
@@ -8113,7 +9428,7 @@
         <v>3.7037037037037037</v>
       </c>
     </row>
-    <row r="32" spans="10:19">
+    <row r="32" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J32" s="1">
         <v>28</v>
       </c>
@@ -8149,7 +9464,7 @@
         <v>4.6428571428571432</v>
       </c>
     </row>
-    <row r="33" spans="3:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J33" s="1">
         <v>29</v>
       </c>
@@ -8185,7 +9500,7 @@
         <v>3.4482758620689653</v>
       </c>
     </row>
-    <row r="34" spans="3:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J34" s="1">
         <v>30</v>
       </c>
@@ -8221,7 +9536,7 @@
         <v>1.3468013468013469</v>
       </c>
     </row>
-    <row r="35" spans="3:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J35" s="1">
         <v>31</v>
       </c>
@@ -8257,7 +9572,7 @@
         <v>0.66006600660066006</v>
       </c>
     </row>
-    <row r="36" spans="3:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J36" s="1">
         <v>32</v>
       </c>
@@ -8293,7 +9608,7 @@
         <v>2.5477707006369426</v>
       </c>
     </row>
-    <row r="37" spans="3:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J37" s="1">
         <v>33</v>
       </c>
@@ -8329,7 +9644,7 @@
         <v>2.7607361963190185</v>
       </c>
     </row>
-    <row r="38" spans="3:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J38" s="1">
         <v>34</v>
       </c>
@@ -8365,7 +9680,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="39" spans="3:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J39" s="1">
         <v>35</v>
       </c>
@@ -8401,7 +9716,7 @@
         <v>1.1049723756906078</v>
       </c>
     </row>
-    <row r="40" spans="3:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J40" s="1">
         <v>36</v>
       </c>
@@ -8437,7 +9752,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="41" spans="3:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J41" s="1">
         <v>37</v>
       </c>
@@ -8473,11 +9788,14 @@
         <v>2.4271844660194173</v>
       </c>
     </row>
-    <row r="42" spans="3:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="1">
@@ -8515,12 +9833,19 @@
         <v>1.3793103448275863</v>
       </c>
     </row>
-    <row r="43" spans="3:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
       <c r="C43" s="4">
         <v>98.886899999999983</v>
       </c>
       <c r="D43" s="4">
         <v>98.397160892323114</v>
+      </c>
+      <c r="E43">
+        <f>SUM(F45,G46)*100/SUM(F45:G46)</f>
+        <v>98.5</v>
       </c>
       <c r="J43" s="1">
         <v>39</v>
@@ -8557,12 +9882,19 @@
         <v>2.2371364653243848</v>
       </c>
     </row>
-    <row r="44" spans="3:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
       <c r="C44" s="4">
         <v>98.800299999999993</v>
       </c>
       <c r="D44" s="4">
         <v>98.524539546953989</v>
+      </c>
+      <c r="E44">
+        <f>SUM(F49,G50)*100/SUM(F49:G50)</f>
+        <v>97</v>
       </c>
       <c r="J44" s="1">
         <v>40</v>
@@ -8599,18 +9931,25 @@
         <v>1.075268817204301</v>
       </c>
     </row>
-    <row r="45" spans="3:19">
-      <c r="C45" s="1">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
         <v>98.817599999999999</v>
       </c>
       <c r="D45" s="1">
         <v>98.175073970798607</v>
       </c>
+      <c r="E45">
+        <f>SUM(F52,G53)*100/SUM(F51:G53)</f>
+        <v>97.5</v>
+      </c>
       <c r="F45">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1">
         <v>41</v>
@@ -8647,7 +9986,7 @@
         <v>1.0683760683760684</v>
       </c>
     </row>
-    <row r="46" spans="3:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F46">
         <v>2</v>
       </c>
@@ -8689,7 +10028,7 @@
         <v>1.2765957446808511</v>
       </c>
     </row>
-    <row r="47" spans="3:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J47" s="1">
         <v>43</v>
       </c>
@@ -8725,7 +10064,7 @@
         <v>1.4830508474576272</v>
       </c>
     </row>
-    <row r="48" spans="3:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J48" s="1">
         <v>44</v>
       </c>
@@ -8761,12 +10100,12 @@
         <v>1.263157894736842</v>
       </c>
     </row>
-    <row r="49" spans="6:19">
+    <row r="49" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F49" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" s="1">
         <v>45</v>
@@ -8803,12 +10142,12 @@
         <v>1.0460251046025104</v>
       </c>
     </row>
-    <row r="50" spans="6:19">
+    <row r="50" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J50" s="1">
         <v>46</v>
@@ -8845,7 +10184,7 @@
         <v>1.0395010395010396</v>
       </c>
     </row>
-    <row r="51" spans="6:19">
+    <row r="51" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J51" s="1">
         <v>47</v>
       </c>
@@ -8881,12 +10220,12 @@
         <v>1.2422360248447204</v>
       </c>
     </row>
-    <row r="52" spans="6:19">
+    <row r="52" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F52" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="1">
         <v>48</v>
@@ -8923,12 +10262,12 @@
         <v>0.82474226804123707</v>
       </c>
     </row>
-    <row r="53" spans="6:19">
+    <row r="53" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J53" s="1">
         <v>49</v>
@@ -8965,7 +10304,7 @@
         <v>0.82304526748971196</v>
       </c>
     </row>
-    <row r="54" spans="6:19">
+    <row r="54" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J54" s="1">
         <v>50</v>
       </c>
@@ -9001,7 +10340,7 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="55" spans="6:19">
+    <row r="55" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J55" s="1">
         <v>51</v>
       </c>
@@ -9037,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:19">
+    <row r="56" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J56" s="1">
         <v>52</v>
       </c>
@@ -9073,7 +10412,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="57" spans="6:19">
+    <row r="57" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J57" s="1">
         <v>53</v>
       </c>
@@ -9109,7 +10448,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="58" spans="6:19">
+    <row r="58" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J58" s="1">
         <v>54</v>
       </c>
@@ -9145,7 +10484,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="59" spans="6:19">
+    <row r="59" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J59" s="1">
         <v>55</v>
       </c>
@@ -9181,7 +10520,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="60" spans="6:19">
+    <row r="60" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J60" s="1">
         <v>56</v>
       </c>
@@ -9217,7 +10556,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="61" spans="6:19">
+    <row r="61" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J61" s="1">
         <v>57</v>
       </c>
@@ -9253,7 +10592,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="62" spans="6:19">
+    <row r="62" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J62" s="1">
         <v>58</v>
       </c>
@@ -9289,7 +10628,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="63" spans="6:19">
+    <row r="63" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J63" s="1">
         <v>59</v>
       </c>
@@ -9325,7 +10664,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="64" spans="6:19">
+    <row r="64" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J64" s="1">
         <v>60</v>
       </c>
@@ -9361,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="10:19">
+    <row r="65" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J65" s="1">
         <v>61</v>
       </c>
@@ -9397,7 +10736,7 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="66" spans="10:19">
+    <row r="66" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J66" s="1">
         <v>62</v>
       </c>
@@ -9433,7 +10772,7 @@
         <v>0.41152263374485598</v>
       </c>
     </row>
-    <row r="67" spans="10:19">
+    <row r="67" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J67" s="1">
         <v>63</v>
       </c>
@@ -9469,7 +10808,7 @@
         <v>0.41322314049586778</v>
       </c>
     </row>
-    <row r="68" spans="10:19">
+    <row r="68" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J68" s="1">
         <v>64</v>
       </c>
@@ -9505,7 +10844,7 @@
         <v>0.62370062370062374</v>
       </c>
     </row>
-    <row r="69" spans="10:19">
+    <row r="69" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J69" s="1">
         <v>65</v>
       </c>
@@ -9541,7 +10880,7 @@
         <v>0.83682008368200833</v>
       </c>
     </row>
-    <row r="70" spans="10:19">
+    <row r="70" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J70" s="1">
         <v>66</v>
       </c>
@@ -9577,7 +10916,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="71" spans="10:19">
+    <row r="71" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J71" s="1">
         <v>67</v>
       </c>
@@ -9613,7 +10952,7 @@
         <v>1.4893617021276595</v>
       </c>
     </row>
-    <row r="72" spans="10:19">
+    <row r="72" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J72" s="1">
         <v>68</v>
       </c>
@@ -9649,7 +10988,7 @@
         <v>1.4957264957264957</v>
       </c>
     </row>
-    <row r="73" spans="10:19">
+    <row r="73" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J73" s="1">
         <v>69</v>
       </c>
@@ -9685,7 +11024,7 @@
         <v>1.9396551724137931</v>
       </c>
     </row>
-    <row r="74" spans="10:19">
+    <row r="74" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J74" s="1">
         <v>70</v>
       </c>
@@ -9721,7 +11060,7 @@
         <v>2.3913043478260869</v>
       </c>
     </row>
-    <row r="75" spans="10:19">
+    <row r="75" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J75" s="1">
         <v>71</v>
       </c>
@@ -9757,7 +11096,7 @@
         <v>2.8508771929824563</v>
       </c>
     </row>
-    <row r="76" spans="10:19">
+    <row r="76" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J76" s="1">
         <v>72</v>
       </c>
@@ -9793,7 +11132,7 @@
         <v>2.6607538802660753</v>
       </c>
     </row>
-    <row r="77" spans="10:19">
+    <row r="77" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J77" s="1">
         <v>73</v>
       </c>
@@ -9829,7 +11168,7 @@
         <v>1.7857142857142858</v>
       </c>
     </row>
-    <row r="78" spans="10:19">
+    <row r="78" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J78" s="1">
         <v>74</v>
       </c>
@@ -9865,7 +11204,7 @@
         <v>1.5765765765765767</v>
       </c>
     </row>
-    <row r="79" spans="10:19">
+    <row r="79" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J79" s="1">
         <v>75</v>
       </c>
@@ -9901,7 +11240,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="80" spans="10:19">
+    <row r="80" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J80" s="1">
         <v>76</v>
       </c>
@@ -9937,7 +11276,7 @@
         <v>1.6055045871559632</v>
       </c>
     </row>
-    <row r="81" spans="10:19">
+    <row r="81" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J81" s="1">
         <v>77</v>
       </c>
@@ -9973,7 +11312,7 @@
         <v>2.3201856148491879</v>
       </c>
     </row>
-    <row r="82" spans="10:19">
+    <row r="82" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J82" s="1">
         <v>78</v>
       </c>
@@ -10009,7 +11348,7 @@
         <v>2.1077283372365341</v>
       </c>
     </row>
-    <row r="83" spans="10:19">
+    <row r="83" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J83" s="1">
         <v>79</v>
       </c>
@@ -10045,7 +11384,7 @@
         <v>2.1327014218009479</v>
       </c>
     </row>
-    <row r="84" spans="10:19">
+    <row r="84" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J84" s="1">
         <v>80</v>
       </c>
@@ -10081,7 +11420,7 @@
         <v>2.6442307692307692</v>
       </c>
     </row>
-    <row r="85" spans="10:19">
+    <row r="85" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J85" s="1">
         <v>81</v>
       </c>
@@ -10117,7 +11456,7 @@
         <v>2.9268292682926829</v>
       </c>
     </row>
-    <row r="86" spans="10:19">
+    <row r="86" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J86" s="1">
         <v>82</v>
       </c>
@@ -10153,7 +11492,7 @@
         <v>3.217821782178218</v>
       </c>
     </row>
-    <row r="87" spans="10:19">
+    <row r="87" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J87" s="1">
         <v>83</v>
       </c>
@@ -10189,7 +11528,7 @@
         <v>3.7878787878787881</v>
       </c>
     </row>
-    <row r="88" spans="10:19">
+    <row r="88" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J88" s="1">
         <v>84</v>
       </c>
@@ -10225,7 +11564,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="89" spans="10:19">
+    <row r="89" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J89" s="1">
         <v>85</v>
       </c>
@@ -10261,7 +11600,7 @@
         <v>3.6649214659685865</v>
       </c>
     </row>
-    <row r="90" spans="10:19">
+    <row r="90" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J90" s="1">
         <v>86</v>
       </c>
@@ -10297,7 +11636,7 @@
         <v>3.4574468085106385</v>
       </c>
     </row>
-    <row r="91" spans="10:19">
+    <row r="91" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J91" s="1">
         <v>87</v>
       </c>
@@ -10333,7 +11672,7 @@
         <v>3.2608695652173911</v>
       </c>
     </row>
-    <row r="92" spans="10:19">
+    <row r="92" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J92" s="1">
         <v>88</v>
       </c>
@@ -10369,7 +11708,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="93" spans="10:19">
+    <row r="93" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J93" s="1">
         <v>89</v>
       </c>
@@ -10405,7 +11744,7 @@
         <v>2.5280898876404496</v>
       </c>
     </row>
-    <row r="94" spans="10:19">
+    <row r="94" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J94" s="1">
         <v>90</v>
       </c>
@@ -10441,7 +11780,7 @@
         <v>1.4245014245014245</v>
       </c>
     </row>
-    <row r="95" spans="10:19">
+    <row r="95" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J95" s="1">
         <v>91</v>
       </c>
@@ -10477,7 +11816,7 @@
         <v>1.7441860465116279</v>
       </c>
     </row>
-    <row r="96" spans="10:19">
+    <row r="96" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J96" s="1">
         <v>92</v>
       </c>
@@ -10513,7 +11852,7 @@
         <v>0.58997050147492625</v>
       </c>
     </row>
-    <row r="97" spans="10:19">
+    <row r="97" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J97" s="1">
         <v>93</v>
       </c>
@@ -10549,7 +11888,7 @@
         <v>0.29850746268656714</v>
       </c>
     </row>
-    <row r="98" spans="10:19">
+    <row r="98" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J98" s="1">
         <v>94</v>
       </c>
@@ -10585,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="10:19">
+    <row r="99" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J99" s="1">
         <v>95</v>
       </c>
@@ -10621,7 +11960,7 @@
         <v>0.91743119266055051</v>
       </c>
     </row>
-    <row r="100" spans="10:19">
+    <row r="100" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J100" s="1">
         <v>96</v>
       </c>
@@ -10657,7 +11996,7 @@
         <v>0.30959752321981426</v>
       </c>
     </row>
-    <row r="101" spans="10:19">
+    <row r="101" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J101" s="1">
         <v>97</v>
       </c>
@@ -10693,7 +12032,7 @@
         <v>0.31347962382445144</v>
       </c>
     </row>
-    <row r="102" spans="10:19">
+    <row r="102" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J102" s="1">
         <v>98</v>
       </c>
@@ -10729,7 +12068,7 @@
         <v>0.31746031746031744</v>
       </c>
     </row>
-    <row r="103" spans="10:19">
+    <row r="103" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J103" s="1">
         <v>99</v>
       </c>
@@ -10765,7 +12104,7 @@
         <v>0.32154340836012862</v>
       </c>
     </row>
-    <row r="104" spans="10:19">
+    <row r="104" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J104" s="1">
         <v>100</v>
       </c>
@@ -10801,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="10:19">
+    <row r="105" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J105" s="1">
         <v>101</v>
       </c>
@@ -10837,7 +12176,7 @@
         <v>0.98039215686274506</v>
       </c>
     </row>
-    <row r="106" spans="10:19">
+    <row r="106" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J106" s="1">
         <v>102</v>
       </c>
@@ -10873,7 +12212,7 @@
         <v>0.99009900990099009</v>
       </c>
     </row>
-    <row r="107" spans="10:19">
+    <row r="107" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J107" s="1">
         <v>103</v>
       </c>
@@ -10909,7 +12248,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="10:19">
+    <row r="108" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J108" s="1">
         <v>104</v>
       </c>
@@ -10945,7 +12284,7 @@
         <v>1.3513513513513513</v>
       </c>
     </row>
-    <row r="109" spans="10:19">
+    <row r="109" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J109" s="1">
         <v>105</v>
       </c>
@@ -10981,7 +12320,7 @@
         <v>3.4013605442176869</v>
       </c>
     </row>
-    <row r="110" spans="10:19">
+    <row r="110" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J110" s="1">
         <v>106</v>
       </c>
@@ -11017,7 +12356,7 @@
         <v>4.4520547945205475</v>
       </c>
     </row>
-    <row r="111" spans="10:19">
+    <row r="111" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J111" s="1">
         <v>107</v>
       </c>
@@ -11053,7 +12392,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="112" spans="10:19">
+    <row r="112" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J112" s="1">
         <v>108</v>
       </c>
@@ -11089,7 +12428,7 @@
         <v>4.1958041958041958</v>
       </c>
     </row>
-    <row r="113" spans="10:19">
+    <row r="113" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J113" s="1">
         <v>109</v>
       </c>
@@ -11125,7 +12464,7 @@
         <v>4.225352112676056</v>
       </c>
     </row>
-    <row r="114" spans="10:19">
+    <row r="114" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J114" s="1">
         <v>110</v>
       </c>
@@ -11161,7 +12500,7 @@
         <v>3.9285714285714284</v>
       </c>
     </row>
-    <row r="115" spans="10:19">
+    <row r="115" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J115" s="1">
         <v>111</v>
       </c>
@@ -11197,7 +12536,7 @@
         <v>4.7101449275362315</v>
       </c>
     </row>
-    <row r="116" spans="10:19">
+    <row r="116" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J116" s="1">
         <v>112</v>
       </c>
@@ -11233,7 +12572,7 @@
         <v>4.7445255474452557</v>
       </c>
     </row>
-    <row r="117" spans="10:19">
+    <row r="117" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J117" s="1">
         <v>113</v>
       </c>
@@ -11269,7 +12608,7 @@
         <v>3.6900369003690039</v>
       </c>
     </row>
-    <row r="118" spans="10:19">
+    <row r="118" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J118" s="1">
         <v>114</v>
       </c>
@@ -11305,7 +12644,7 @@
         <v>3.7313432835820897</v>
       </c>
     </row>
-    <row r="119" spans="10:19">
+    <row r="119" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J119" s="1">
         <v>115</v>
       </c>
@@ -11341,7 +12680,7 @@
         <v>3.3962264150943398</v>
       </c>
     </row>
-    <row r="120" spans="10:19">
+    <row r="120" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J120" s="1">
         <v>116</v>
       </c>
@@ -11377,7 +12716,7 @@
         <v>2.6717557251908395</v>
       </c>
     </row>
-    <row r="121" spans="10:19">
+    <row r="121" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J121" s="1">
         <v>117</v>
       </c>
@@ -11413,7 +12752,7 @@
         <v>2.3166023166023164</v>
       </c>
     </row>
-    <row r="122" spans="10:19">
+    <row r="122" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J122" s="1">
         <v>118</v>
       </c>
@@ -11449,7 +12788,7 @@
         <v>3.515625</v>
       </c>
     </row>
-    <row r="123" spans="10:19">
+    <row r="123" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J123" s="1">
         <v>119</v>
       </c>
@@ -11485,7 +12824,7 @@
         <v>2.766798418972332</v>
       </c>
     </row>
-    <row r="124" spans="10:19">
+    <row r="124" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J124" s="1">
         <v>120</v>
       </c>
@@ -11521,7 +12860,7 @@
         <v>2.766798418972332</v>
       </c>
     </row>
-    <row r="125" spans="10:19">
+    <row r="125" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J125" s="1">
         <v>121</v>
       </c>
@@ -11557,7 +12896,7 @@
         <v>2.3809523809523809</v>
       </c>
     </row>
-    <row r="126" spans="10:19">
+    <row r="126" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J126" s="1">
         <v>122</v>
       </c>
@@ -11593,7 +12932,7 @@
         <v>3.1746031746031744</v>
       </c>
     </row>
-    <row r="127" spans="10:19">
+    <row r="127" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J127" s="1">
         <v>123</v>
       </c>
@@ -11629,7 +12968,7 @@
         <v>3.5856573705179282</v>
       </c>
     </row>
-    <row r="128" spans="10:19">
+    <row r="128" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J128" s="1">
         <v>124</v>
       </c>
@@ -11665,7 +13004,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="129" spans="10:19">
+    <row r="129" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J129" s="1">
         <v>125</v>
       </c>
@@ -11701,7 +13040,7 @@
         <v>6.4257028112449799</v>
       </c>
     </row>
-    <row r="130" spans="10:19">
+    <row r="130" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J130" s="1">
         <v>126</v>
       </c>
@@ -11737,7 +13076,7 @@
         <v>6.4516129032258061</v>
       </c>
     </row>
-    <row r="131" spans="10:19">
+    <row r="131" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J131" s="1">
         <v>127</v>
       </c>
@@ -11773,7 +13112,7 @@
         <v>5.668016194331984</v>
       </c>
     </row>
-    <row r="132" spans="10:19">
+    <row r="132" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J132" s="1">
         <v>128</v>
       </c>
@@ -11809,7 +13148,7 @@
         <v>4.4534412955465585</v>
       </c>
     </row>
-    <row r="133" spans="10:19">
+    <row r="133" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J133" s="1">
         <v>129</v>
       </c>
@@ -11845,7 +13184,7 @@
         <v>4.048582995951417</v>
       </c>
     </row>
-    <row r="134" spans="10:19">
+    <row r="134" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J134" s="1">
         <v>130</v>
       </c>
@@ -11881,7 +13220,7 @@
         <v>4.4715447154471546</v>
       </c>
     </row>
-    <row r="135" spans="10:19">
+    <row r="135" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J135" s="1">
         <v>131</v>
       </c>
@@ -11917,7 +13256,7 @@
         <v>5.2845528455284549</v>
       </c>
     </row>
-    <row r="136" spans="10:19">
+    <row r="136" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J136" s="1">
         <v>132</v>
       </c>
@@ -11953,7 +13292,7 @@
         <v>5.3061224489795915</v>
       </c>
     </row>
-    <row r="137" spans="10:19">
+    <row r="137" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J137" s="1">
         <v>133</v>
       </c>
@@ -11989,7 +13328,7 @@
         <v>5.7142857142857144</v>
       </c>
     </row>
-    <row r="138" spans="10:19">
+    <row r="138" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J138" s="1">
         <v>134</v>
       </c>
@@ -12025,7 +13364,7 @@
         <v>5.3278688524590168</v>
       </c>
     </row>
-    <row r="139" spans="10:19">
+    <row r="139" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J139" s="1">
         <v>135</v>
       </c>
@@ -12061,7 +13400,7 @@
         <v>5.3497942386831276</v>
       </c>
     </row>
-    <row r="140" spans="10:19">
+    <row r="140" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J140" s="1">
         <v>136</v>
       </c>
@@ -12097,7 +13436,7 @@
         <v>4.9586776859504136</v>
       </c>
     </row>
-    <row r="141" spans="10:19">
+    <row r="141" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J141" s="1">
         <v>137</v>
       </c>
@@ -12133,7 +13472,7 @@
         <v>4.5643153526970952</v>
       </c>
     </row>
-    <row r="142" spans="10:19">
+    <row r="142" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J142" s="1">
         <v>138</v>
       </c>
@@ -12169,7 +13508,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="143" spans="10:19">
+    <row r="143" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J143" s="1">
         <v>139</v>
       </c>
@@ -12205,7 +13544,7 @@
         <v>0.83682008368200833</v>
       </c>
     </row>
-    <row r="144" spans="10:19">
+    <row r="144" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J144" s="1">
         <v>140</v>
       </c>
@@ -12241,7 +13580,7 @@
         <v>1.680672268907563</v>
       </c>
     </row>
-    <row r="145" spans="10:19">
+    <row r="145" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J145" s="1">
         <v>141</v>
       </c>
@@ -12277,7 +13616,7 @@
         <v>2.1186440677966103</v>
       </c>
     </row>
-    <row r="146" spans="10:19">
+    <row r="146" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J146" s="1">
         <v>142</v>
       </c>
@@ -12313,7 +13652,7 @@
         <v>1.7094017094017093</v>
       </c>
     </row>
-    <row r="147" spans="10:19">
+    <row r="147" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J147" s="1">
         <v>143</v>
       </c>
@@ -12349,7 +13688,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="148" spans="10:19">
+    <row r="148" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J148" s="1">
         <v>144</v>
       </c>
@@ -12385,7 +13724,7 @@
         <v>2.1367521367521367</v>
       </c>
     </row>
-    <row r="149" spans="10:19">
+    <row r="149" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J149" s="1">
         <v>145</v>
       </c>
@@ -12421,7 +13760,7 @@
         <v>1.7167381974248928</v>
       </c>
     </row>
-    <row r="150" spans="10:19">
+    <row r="150" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J150" s="1">
         <v>146</v>
       </c>
@@ -12457,7 +13796,7 @@
         <v>1.2931034482758621</v>
       </c>
     </row>
-    <row r="151" spans="10:19">
+    <row r="151" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J151" s="1">
         <v>147</v>
       </c>
@@ -12493,7 +13832,7 @@
         <v>0.86580086580086579</v>
       </c>
     </row>
-    <row r="152" spans="10:19">
+    <row r="152" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J152" s="1">
         <v>148</v>
       </c>
@@ -12529,7 +13868,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="153" spans="10:19">
+    <row r="153" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J153" s="1">
         <v>149</v>
       </c>
@@ -12565,7 +13904,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="154" spans="10:19">
+    <row r="154" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J154" s="1">
         <v>150</v>
       </c>
@@ -12601,7 +13940,7 @@
         <v>0.86580086580086579</v>
       </c>
     </row>
-    <row r="155" spans="10:19">
+    <row r="155" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J155" s="1">
         <v>151</v>
       </c>
@@ -12637,7 +13976,7 @@
         <v>0.86206896551724133</v>
       </c>
     </row>
-    <row r="156" spans="10:19">
+    <row r="156" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J156" s="1">
         <v>152</v>
       </c>
@@ -12673,7 +14012,7 @@
         <v>1.7094017094017093</v>
       </c>
     </row>
-    <row r="157" spans="10:19">
+    <row r="157" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J157" s="1">
         <v>153</v>
       </c>
@@ -12709,7 +14048,7 @@
         <v>2.9661016949152543</v>
       </c>
     </row>
-    <row r="158" spans="10:19">
+    <row r="158" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J158" s="1">
         <v>154</v>
       </c>
@@ -12745,7 +14084,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="159" spans="10:19">
+    <row r="159" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J159" s="1">
         <v>155</v>
       </c>
@@ -12781,7 +14120,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="160" spans="10:19">
+    <row r="160" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J160" s="1">
         <v>156</v>
       </c>
@@ -12817,7 +14156,7 @@
         <v>4.8076923076923075</v>
       </c>
     </row>
-    <row r="161" spans="10:19">
+    <row r="161" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J161" s="1">
         <v>157</v>
       </c>
@@ -12853,7 +14192,7 @@
         <v>4.8076923076923075</v>
       </c>
     </row>
-    <row r="162" spans="10:19">
+    <row r="162" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J162" s="1">
         <v>158</v>
       </c>
@@ -12889,7 +14228,7 @@
         <v>4.3062200956937797</v>
       </c>
     </row>
-    <row r="163" spans="10:19">
+    <row r="163" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J163" s="1">
         <v>159</v>
       </c>
@@ -12925,7 +14264,7 @@
         <v>4.3062200956937797</v>
       </c>
     </row>
-    <row r="164" spans="10:19">
+    <row r="164" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J164" s="1">
         <v>160</v>
       </c>
@@ -12961,7 +14300,7 @@
         <v>5.741626794258373</v>
       </c>
     </row>
-    <row r="165" spans="10:19">
+    <row r="165" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J165" s="1">
         <v>161</v>
       </c>
@@ -12997,7 +14336,7 @@
         <v>5.741626794258373</v>
       </c>
     </row>
-    <row r="166" spans="10:19">
+    <row r="166" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J166" s="1">
         <v>162</v>
       </c>
@@ -13033,7 +14372,7 @@
         <v>5.2631578947368425</v>
       </c>
     </row>
-    <row r="167" spans="10:19">
+    <row r="167" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J167" s="1">
         <v>163</v>
       </c>
@@ -13069,7 +14408,7 @@
         <v>3.3492822966507179</v>
       </c>
     </row>
-    <row r="168" spans="10:19">
+    <row r="168" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J168" s="1">
         <v>164</v>
       </c>
@@ -13105,7 +14444,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="169" spans="10:19">
+    <row r="169" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J169" s="1">
         <v>165</v>
       </c>
@@ -13141,7 +14480,7 @@
         <v>1.9047619047619047</v>
       </c>
     </row>
-    <row r="170" spans="10:19">
+    <row r="170" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J170" s="1">
         <v>166</v>
       </c>
@@ -13177,7 +14516,7 @@
         <v>1.8957345971563981</v>
       </c>
     </row>
-    <row r="171" spans="10:19">
+    <row r="171" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J171" s="1">
         <v>167</v>
       </c>
@@ -13213,7 +14552,7 @@
         <v>2.3696682464454977</v>
       </c>
     </row>
-    <row r="172" spans="10:19">
+    <row r="172" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J172" s="1">
         <v>168</v>
       </c>
@@ -13249,7 +14588,7 @@
         <v>4.716981132075472</v>
       </c>
     </row>
-    <row r="173" spans="10:19">
+    <row r="173" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J173" s="1">
         <v>169</v>
       </c>
@@ -13285,7 +14624,7 @@
         <v>5.6338028169014081</v>
       </c>
     </row>
-    <row r="174" spans="10:19">
+    <row r="174" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J174" s="1">
         <v>170</v>
       </c>
@@ -13321,7 +14660,7 @@
         <v>6.103286384976526</v>
       </c>
     </row>
-    <row r="175" spans="10:19">
+    <row r="175" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J175" s="1">
         <v>171</v>
       </c>
@@ -13357,7 +14696,7 @@
         <v>5.6074766355140184</v>
       </c>
     </row>
-    <row r="176" spans="10:19">
+    <row r="176" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J176" s="1">
         <v>172</v>
       </c>
@@ -13393,7 +14732,7 @@
         <v>5.6074766355140184</v>
       </c>
     </row>
-    <row r="177" spans="10:19">
+    <row r="177" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J177" s="1">
         <v>173</v>
       </c>
@@ -13429,7 +14768,7 @@
         <v>5.1401869158878508</v>
       </c>
     </row>
-    <row r="178" spans="10:19">
+    <row r="178" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J178" s="1">
         <v>174</v>
       </c>
@@ -13465,7 +14804,7 @@
         <v>6.0465116279069768</v>
       </c>
     </row>
-    <row r="179" spans="10:19">
+    <row r="179" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J179" s="1">
         <v>175</v>
       </c>
@@ -13501,7 +14840,7 @@
         <v>5.1162790697674421</v>
       </c>
     </row>
-    <row r="180" spans="10:19">
+    <row r="180" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J180" s="1">
         <v>176</v>
       </c>
@@ -13537,7 +14876,7 @@
         <v>3.7209302325581395</v>
       </c>
     </row>
-    <row r="181" spans="10:19">
+    <row r="181" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J181" s="1">
         <v>177</v>
       </c>
@@ -13573,7 +14912,7 @@
         <v>3.2558139534883721</v>
       </c>
     </row>
-    <row r="182" spans="10:19">
+    <row r="182" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J182" s="1">
         <v>178</v>
       </c>
@@ -13609,7 +14948,7 @@
         <v>2.7777777777777777</v>
       </c>
     </row>
-    <row r="183" spans="10:19">
+    <row r="183" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J183" s="1">
         <v>179</v>
       </c>
@@ -13645,7 +14984,7 @@
         <v>2.3041474654377878</v>
       </c>
     </row>
-    <row r="184" spans="10:19">
+    <row r="184" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J184" s="1">
         <v>180</v>
       </c>
@@ -13681,7 +15020,7 @@
         <v>2.2935779816513762</v>
       </c>
     </row>
-    <row r="185" spans="10:19">
+    <row r="185" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J185" s="1">
         <v>181</v>
       </c>
@@ -13717,7 +15056,7 @@
         <v>2.7149321266968327</v>
       </c>
     </row>
-    <row r="186" spans="10:19">
+    <row r="186" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J186" s="1">
         <v>182</v>
       </c>
@@ -13753,7 +15092,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="187" spans="10:19">
+    <row r="187" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J187" s="1">
         <v>183</v>
       </c>
@@ -13789,7 +15128,7 @@
         <v>8.2608695652173907</v>
       </c>
     </row>
-    <row r="188" spans="10:19">
+    <row r="188" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J188" s="1">
         <v>184</v>
       </c>
@@ -13825,7 +15164,7 @@
         <v>8.1896551724137936</v>
       </c>
     </row>
-    <row r="189" spans="10:19">
+    <row r="189" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J189" s="1">
         <v>185</v>
       </c>
@@ -13861,7 +15200,7 @@
         <v>9.3617021276595747</v>
       </c>
     </row>
-    <row r="190" spans="10:19">
+    <row r="190" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J190" s="1">
         <v>186</v>
       </c>
@@ -13897,7 +15236,7 @@
         <v>9.6638655462184868</v>
       </c>
     </row>
-    <row r="191" spans="10:19">
+    <row r="191" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J191" s="1">
         <v>187</v>
       </c>
@@ -13933,7 +15272,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="192" spans="10:19">
+    <row r="192" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J192" s="1">
         <v>188</v>
       </c>
@@ -13969,7 +15308,7 @@
         <v>7.7551020408163263</v>
       </c>
     </row>
-    <row r="193" spans="10:19">
+    <row r="193" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J193" s="1">
         <v>189</v>
       </c>
@@ -14005,7 +15344,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="194" spans="10:19">
+    <row r="194" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J194" s="1">
         <v>190</v>
       </c>
@@ -14041,7 +15380,7 @@
         <v>2.7450980392156863</v>
       </c>
     </row>
-    <row r="195" spans="10:19">
+    <row r="195" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J195" s="1">
         <v>191</v>
       </c>
@@ -14077,7 +15416,7 @@
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="196" spans="10:19">
+    <row r="196" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J196" s="1">
         <v>192</v>
       </c>
@@ -14113,7 +15452,7 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="197" spans="10:19">
+    <row r="197" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J197" s="1">
         <v>193</v>
       </c>
@@ -14149,7 +15488,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="198" spans="10:19">
+    <row r="198" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J198" s="1">
         <v>194</v>
       </c>
@@ -14185,7 +15524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="10:19">
+    <row r="199" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J199" s="1">
         <v>195</v>
       </c>
@@ -14221,7 +15560,7 @@
         <v>5.0955414012738851</v>
       </c>
     </row>
-    <row r="200" spans="10:19">
+    <row r="200" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J200" s="1">
         <v>196</v>
       </c>
@@ -14257,7 +15596,7 @@
         <v>3.6585365853658538</v>
       </c>
     </row>
-    <row r="201" spans="10:19">
+    <row r="201" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J201" s="1">
         <v>197</v>
       </c>
@@ -14293,7 +15632,7 @@
         <v>0.88235294117647056</v>
       </c>
     </row>
-    <row r="202" spans="10:19">
+    <row r="202" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J202" s="1">
         <v>198</v>
       </c>
@@ -14329,7 +15668,7 @@
         <v>2.2857142857142856</v>
       </c>
     </row>
-    <row r="203" spans="10:19">
+    <row r="203" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J203" s="1">
         <v>199</v>
       </c>
@@ -14365,7 +15704,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="204" spans="10:19">
+    <row r="204" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J204" s="1">
         <v>200</v>
       </c>
@@ -14401,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="10:19">
+    <row r="205" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J205" s="1">
         <v>201</v>
       </c>
@@ -14437,7 +15776,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="206" spans="10:19">
+    <row r="206" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J206" s="1">
         <v>202</v>
       </c>
@@ -14473,7 +15812,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="207" spans="10:19">
+    <row r="207" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J207" s="1">
         <v>203</v>
       </c>
@@ -14509,7 +15848,7 @@
         <v>1.0050251256281406</v>
       </c>
     </row>
-    <row r="208" spans="10:19">
+    <row r="208" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J208" s="1">
         <v>204</v>
       </c>
@@ -14545,7 +15884,7 @@
         <v>2.4691358024691357</v>
       </c>
     </row>
-    <row r="209" spans="10:19">
+    <row r="209" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J209" s="1">
         <v>205</v>
       </c>
@@ -14581,7 +15920,7 @@
         <v>1.6990291262135921</v>
       </c>
     </row>
-    <row r="210" spans="10:19">
+    <row r="210" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J210" s="1">
         <v>206</v>
       </c>
@@ -14617,7 +15956,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="211" spans="10:19">
+    <row r="211" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J211" s="1">
         <v>207</v>
       </c>
@@ -14653,7 +15992,7 @@
         <v>0.23364485981308411</v>
       </c>
     </row>
-    <row r="212" spans="10:19">
+    <row r="212" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J212" s="1">
         <v>208</v>
       </c>
@@ -14689,7 +16028,7 @@
         <v>1.6166281755196306</v>
       </c>
     </row>
-    <row r="213" spans="10:19">
+    <row r="213" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J213" s="1">
         <v>209</v>
       </c>
@@ -14725,7 +16064,7 @@
         <v>2.5114155251141552</v>
       </c>
     </row>
-    <row r="214" spans="10:19">
+    <row r="214" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J214" s="1">
         <v>210</v>
       </c>
@@ -14761,7 +16100,7 @@
         <v>2.2471910112359552</v>
       </c>
     </row>
-    <row r="215" spans="10:19">
+    <row r="215" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J215" s="1">
         <v>211</v>
       </c>
@@ -14797,7 +16136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="10:19">
+    <row r="216" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J216" s="1">
         <v>212</v>
       </c>
@@ -14833,7 +16172,7 @@
         <v>1.9823788546255507</v>
       </c>
     </row>
-    <row r="217" spans="10:19">
+    <row r="217" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J217" s="1">
         <v>213</v>
       </c>
@@ -14869,7 +16208,7 @@
         <v>2.1881838074398248</v>
       </c>
     </row>
-    <row r="218" spans="10:19">
+    <row r="218" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J218" s="1">
         <v>214</v>
       </c>
@@ -14905,7 +16244,7 @@
         <v>2.1739130434782608</v>
       </c>
     </row>
-    <row r="219" spans="10:19">
+    <row r="219" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J219" s="1">
         <v>215</v>
       </c>
@@ -14941,7 +16280,7 @@
         <v>1.5053763440860215</v>
       </c>
     </row>
-    <row r="220" spans="10:19">
+    <row r="220" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J220" s="1">
         <v>216</v>
       </c>
@@ -14977,7 +16316,7 @@
         <v>1.502145922746781</v>
       </c>
     </row>
-    <row r="221" spans="10:19">
+    <row r="221" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J221" s="1">
         <v>217</v>
       </c>
@@ -15013,7 +16352,7 @@
         <v>1.4989293361884368</v>
       </c>
     </row>
-    <row r="222" spans="10:19">
+    <row r="222" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J222" s="1">
         <v>218</v>
       </c>
@@ -15049,7 +16388,7 @@
         <v>1.4925373134328359</v>
       </c>
     </row>
-    <row r="223" spans="10:19">
+    <row r="223" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J223" s="1">
         <v>219</v>
       </c>
@@ -15085,7 +16424,7 @@
         <v>1.2765957446808511</v>
       </c>
     </row>
-    <row r="224" spans="10:19">
+    <row r="224" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J224" s="1">
         <v>220</v>
       </c>
@@ -15121,7 +16460,7 @@
         <v>1.0615711252653928</v>
       </c>
     </row>
-    <row r="225" spans="10:19">
+    <row r="225" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J225" s="1">
         <v>221</v>
       </c>
@@ -15157,7 +16496,7 @@
         <v>1.0615711252653928</v>
       </c>
     </row>
-    <row r="226" spans="10:19">
+    <row r="226" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J226" s="1">
         <v>222</v>
       </c>
@@ -15193,7 +16532,7 @@
         <v>1.0615711252653928</v>
       </c>
     </row>
-    <row r="227" spans="10:19">
+    <row r="227" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J227" s="1">
         <v>223</v>
       </c>
@@ -15229,7 +16568,7 @@
         <v>0.84925690021231426</v>
       </c>
     </row>
-    <row r="228" spans="10:19">
+    <row r="228" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J228" s="1">
         <v>224</v>
       </c>
@@ -15265,7 +16604,7 @@
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="229" spans="10:19">
+    <row r="229" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J229" s="1">
         <v>225</v>
       </c>
@@ -15301,7 +16640,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="230" spans="10:19">
+    <row r="230" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J230" s="1">
         <v>226</v>
       </c>
@@ -15337,7 +16676,7 @@
         <v>0.42553191489361702</v>
       </c>
     </row>
-    <row r="231" spans="10:19">
+    <row r="231" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J231" s="1">
         <v>227</v>
       </c>
@@ -15373,7 +16712,7 @@
         <v>0.63965884861407252</v>
       </c>
     </row>
-    <row r="232" spans="10:19">
+    <row r="232" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J232" s="1">
         <v>228</v>
       </c>
@@ -15409,7 +16748,7 @@
         <v>0.64102564102564108</v>
       </c>
     </row>
-    <row r="233" spans="10:19">
+    <row r="233" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J233" s="1">
         <v>229</v>
       </c>
@@ -15445,7 +16784,7 @@
         <v>0.42826552462526768</v>
       </c>
     </row>
-    <row r="234" spans="10:19">
+    <row r="234" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J234" s="1">
         <v>230</v>
       </c>
@@ -15481,7 +16820,7 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="235" spans="10:19">
+    <row r="235" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J235" s="1">
         <v>231</v>
       </c>
@@ -15517,7 +16856,7 @@
         <v>0.86580086580086579</v>
       </c>
     </row>
-    <row r="236" spans="10:19">
+    <row r="236" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J236" s="1">
         <v>232</v>
       </c>
@@ -15553,7 +16892,7 @@
         <v>1.0893246187363834</v>
       </c>
     </row>
-    <row r="237" spans="10:19">
+    <row r="237" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J237" s="1">
         <v>233</v>
       </c>
@@ -15589,7 +16928,7 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="238" spans="10:19">
+    <row r="238" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J238" s="1">
         <v>234</v>
       </c>
@@ -15625,7 +16964,7 @@
         <v>1.098901098901099</v>
       </c>
     </row>
-    <row r="239" spans="10:19">
+    <row r="239" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J239" s="1">
         <v>235</v>
       </c>
@@ -15661,7 +17000,7 @@
         <v>1.5555555555555556</v>
       </c>
     </row>
-    <row r="240" spans="10:19">
+    <row r="240" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J240" s="1">
         <v>236</v>
       </c>
@@ -15697,7 +17036,7 @@
         <v>1.5659955257270695</v>
       </c>
     </row>
-    <row r="241" spans="10:19">
+    <row r="241" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J241" s="1">
         <v>237</v>
       </c>
@@ -15733,7 +17072,7 @@
         <v>1.5765765765765767</v>
       </c>
     </row>
-    <row r="242" spans="10:19">
+    <row r="242" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J242" s="1">
         <v>238</v>
       </c>
@@ -15769,7 +17108,7 @@
         <v>1.5873015873015872</v>
       </c>
     </row>
-    <row r="243" spans="10:19">
+    <row r="243" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J243" s="1">
         <v>239</v>
       </c>
@@ -15805,7 +17144,7 @@
         <v>1.6018306636155606</v>
       </c>
     </row>
-    <row r="244" spans="10:19">
+    <row r="244" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J244" s="1">
         <v>240</v>
       </c>
@@ -15841,7 +17180,7 @@
         <v>1.6166281755196306</v>
       </c>
     </row>
-    <row r="245" spans="10:19">
+    <row r="245" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J245" s="1">
         <v>241</v>
       </c>
@@ -15877,7 +17216,7 @@
         <v>1.8604651162790697</v>
       </c>
     </row>
-    <row r="246" spans="10:19">
+    <row r="246" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J246" s="1">
         <v>242</v>
       </c>
@@ -15913,7 +17252,7 @@
         <v>1.405152224824356</v>
       </c>
     </row>
-    <row r="247" spans="10:19">
+    <row r="247" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J247" s="1">
         <v>243</v>
       </c>
@@ -15949,7 +17288,7 @@
         <v>0.47169811320754718</v>
       </c>
     </row>
-    <row r="248" spans="10:19">
+    <row r="248" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J248" s="1">
         <v>244</v>
       </c>
@@ -15985,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="10:19">
+    <row r="249" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J249" s="1">
         <v>245</v>
       </c>
@@ -16021,7 +17360,7 @@
         <v>0.47961630695443647</v>
       </c>
     </row>
-    <row r="250" spans="10:19">
+    <row r="250" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J250" s="1">
         <v>246</v>
       </c>
@@ -16057,7 +17396,7 @@
         <v>1.6949152542372881</v>
       </c>
     </row>
-    <row r="251" spans="10:19">
+    <row r="251" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J251" s="1">
         <v>247</v>
       </c>
@@ -16093,7 +17432,7 @@
         <v>2.9268292682926829</v>
       </c>
     </row>
-    <row r="252" spans="10:19">
+    <row r="252" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J252" s="1">
         <v>248</v>
       </c>
@@ -16129,7 +17468,7 @@
         <v>0.49382716049382713</v>
       </c>
     </row>
-    <row r="253" spans="10:19">
+    <row r="253" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J253" s="1">
         <v>249</v>
       </c>
@@ -16165,7 +17504,7 @@
         <v>1.9950124688279303</v>
       </c>
     </row>
-    <row r="254" spans="10:19">
+    <row r="254" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J254" s="1">
         <v>250</v>
       </c>
@@ -16201,7 +17540,7 @@
         <v>2.0151133501259446</v>
       </c>
     </row>
-    <row r="255" spans="10:19">
+    <row r="255" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J255" s="1">
         <v>251</v>
       </c>
@@ -16237,7 +17576,7 @@
         <v>2.2900763358778624</v>
       </c>
     </row>
-    <row r="256" spans="10:19">
+    <row r="256" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J256" s="1">
         <v>252</v>
       </c>
@@ -16273,7 +17612,7 @@
         <v>1.7948717948717949</v>
       </c>
     </row>
-    <row r="257" spans="10:19">
+    <row r="257" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J257" s="1">
         <v>253</v>
       </c>
@@ -16309,7 +17648,7 @@
         <v>1.2987012987012987</v>
       </c>
     </row>
-    <row r="258" spans="10:19">
+    <row r="258" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J258" s="1">
         <v>254</v>
       </c>
@@ -16345,7 +17684,7 @@
         <v>1.0498687664041995</v>
       </c>
     </row>
-    <row r="259" spans="10:19">
+    <row r="259" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J259" s="1">
         <v>255</v>
       </c>
@@ -16381,7 +17720,7 @@
         <v>0.79575596816976124</v>
       </c>
     </row>
-    <row r="260" spans="10:19">
+    <row r="260" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J260" s="1">
         <v>256</v>
       </c>
@@ -16417,7 +17756,7 @@
         <v>1.0695187165775402</v>
       </c>
     </row>
-    <row r="261" spans="10:19">
+    <row r="261" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J261" s="1">
         <v>257</v>
       </c>
@@ -16453,7 +17792,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="262" spans="10:19">
+    <row r="262" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J262" s="1">
         <v>258</v>
       </c>
@@ -16489,7 +17828,7 @@
         <v>1.095890410958904</v>
       </c>
     </row>
-    <row r="263" spans="10:19">
+    <row r="263" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J263" s="1">
         <v>259</v>
       </c>
@@ -16525,7 +17864,7 @@
         <v>0.554016620498615</v>
       </c>
     </row>
-    <row r="264" spans="10:19">
+    <row r="264" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J264" s="1">
         <v>260</v>
       </c>
@@ -16561,7 +17900,7 @@
         <v>0.56022408963585435</v>
       </c>
     </row>
-    <row r="265" spans="10:19">
+    <row r="265" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J265" s="1">
         <v>261</v>
       </c>
@@ -16597,7 +17936,7 @@
         <v>1.1331444759206799</v>
       </c>
     </row>
-    <row r="266" spans="10:19">
+    <row r="266" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J266" s="1">
         <v>262</v>
       </c>
@@ -16633,7 +17972,7 @@
         <v>1.4326647564469914</v>
       </c>
     </row>
-    <row r="267" spans="10:19">
+    <row r="267" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J267" s="1">
         <v>263</v>
       </c>
@@ -16669,7 +18008,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="268" spans="10:19">
+    <row r="268" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J268" s="1">
         <v>264</v>
       </c>
@@ -16705,7 +18044,7 @@
         <v>0.87976539589442815</v>
       </c>
     </row>
-    <row r="269" spans="10:19">
+    <row r="269" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J269" s="1">
         <v>265</v>
       </c>
@@ -16741,7 +18080,7 @@
         <v>1.1869436201780414</v>
       </c>
     </row>
-    <row r="270" spans="10:19">
+    <row r="270" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J270" s="1">
         <v>266</v>
       </c>
@@ -16777,7 +18116,7 @@
         <v>1.2012012012012012</v>
       </c>
     </row>
-    <row r="271" spans="10:19">
+    <row r="271" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J271" s="1">
         <v>267</v>
       </c>
@@ -16813,7 +18152,7 @@
         <v>0.3048780487804878</v>
       </c>
     </row>
-    <row r="272" spans="10:19">
+    <row r="272" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J272" s="1">
         <v>268</v>
       </c>
@@ -16849,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="10:19">
+    <row r="273" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J273" s="1">
         <v>269</v>
       </c>
@@ -16885,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="10:19">
+    <row r="274" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J274" s="1">
         <v>270</v>
       </c>
@@ -16921,7 +18260,7 @@
         <v>0.31347962382445144</v>
       </c>
     </row>
-    <row r="275" spans="10:19">
+    <row r="275" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J275" s="1">
         <v>271</v>
       </c>
@@ -16957,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="10:19">
+    <row r="276" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J276" s="1">
         <v>272</v>
       </c>
@@ -16993,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="10:19">
+    <row r="277" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J277" s="1">
         <v>273</v>
       </c>
@@ -17029,7 +18368,7 @@
         <v>0.31948881789137379</v>
       </c>
     </row>
-    <row r="278" spans="10:19">
+    <row r="278" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J278" s="1">
         <v>274</v>
       </c>
@@ -17065,7 +18404,7 @@
         <v>0.96463022508038587</v>
       </c>
     </row>
-    <row r="279" spans="10:19">
+    <row r="279" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J279" s="1">
         <v>275</v>
       </c>
@@ -17101,7 +18440,7 @@
         <v>0.970873786407767</v>
       </c>
     </row>
-    <row r="280" spans="10:19">
+    <row r="280" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J280" s="1">
         <v>276</v>
       </c>
@@ -17137,7 +18476,7 @@
         <v>1.2987012987012987</v>
       </c>
     </row>
-    <row r="281" spans="10:19">
+    <row r="281" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J281" s="1">
         <v>277</v>
       </c>
@@ -17173,7 +18512,7 @@
         <v>1.6286644951140066</v>
       </c>
     </row>
-    <row r="282" spans="10:19">
+    <row r="282" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J282" s="1">
         <v>278</v>
       </c>
@@ -17209,7 +18548,7 @@
         <v>1.3114754098360655</v>
       </c>
     </row>
-    <row r="283" spans="10:19">
+    <row r="283" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J283" s="1">
         <v>279</v>
       </c>
@@ -17245,7 +18584,7 @@
         <v>0.66006600660066006</v>
       </c>
     </row>
-    <row r="284" spans="10:19">
+    <row r="284" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J284" s="1">
         <v>280</v>
       </c>
@@ -17281,7 +18620,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="285" spans="10:19">
+    <row r="285" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J285" s="1">
         <v>281</v>
       </c>
@@ -17317,7 +18656,7 @@
         <v>0.33557046979865773</v>
       </c>
     </row>
-    <row r="286" spans="10:19">
+    <row r="286" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J286" s="1">
         <v>282</v>
       </c>
@@ -17353,7 +18692,7 @@
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="287" spans="10:19">
+    <row r="287" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J287" s="1">
         <v>283</v>
       </c>
@@ -17389,7 +18728,7 @@
         <v>0.68027210884353739</v>
       </c>
     </row>
-    <row r="288" spans="10:19">
+    <row r="288" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J288" s="1">
         <v>284</v>
       </c>
@@ -17425,7 +18764,7 @@
         <v>0.3401360544217687</v>
       </c>
     </row>
-    <row r="289" spans="10:19">
+    <row r="289" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J289" s="1">
         <v>285</v>
       </c>
@@ -17461,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="10:19">
+    <row r="290" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J290" s="1">
         <v>286</v>
       </c>
@@ -17497,7 +18836,7 @@
         <v>1.0309278350515463</v>
       </c>
     </row>
-    <row r="291" spans="10:19">
+    <row r="291" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J291" s="1">
         <v>287</v>
       </c>
@@ -17533,7 +18872,7 @@
         <v>3.0927835051546393</v>
       </c>
     </row>
-    <row r="292" spans="10:19">
+    <row r="292" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J292" s="1">
         <v>288</v>
       </c>
@@ -17569,7 +18908,7 @@
         <v>3.7931034482758621</v>
       </c>
     </row>
-    <row r="293" spans="10:19">
+    <row r="293" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J293" s="1">
         <v>289</v>
       </c>
@@ -17605,7 +18944,7 @@
         <v>3.8194444444444446</v>
       </c>
     </row>
-    <row r="294" spans="10:19">
+    <row r="294" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J294" s="1">
         <v>290</v>
       </c>
@@ -17641,7 +18980,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="295" spans="10:19">
+    <row r="295" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J295" s="1">
         <v>291</v>
       </c>
@@ -17677,7 +19016,7 @@
         <v>1.3793103448275863</v>
       </c>
     </row>
-    <row r="296" spans="10:19">
+    <row r="296" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J296" s="1">
         <v>292</v>
       </c>
@@ -17713,7 +19052,7 @@
         <v>0.68027210884353739</v>
       </c>
     </row>
-    <row r="297" spans="10:19">
+    <row r="297" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J297" s="1">
         <v>293</v>
       </c>
@@ -17749,7 +19088,7 @@
         <v>2.9801324503311259</v>
       </c>
     </row>
-    <row r="298" spans="10:19">
+    <row r="298" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J298" s="1">
         <v>294</v>
       </c>
@@ -17785,7 +19124,7 @@
         <v>3.2467532467532467</v>
       </c>
     </row>
-    <row r="299" spans="10:19">
+    <row r="299" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J299" s="1">
         <v>295</v>
       </c>
@@ -17821,7 +19160,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="300" spans="10:19">
+    <row r="300" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J300" s="1">
         <v>296</v>
       </c>
@@ -17857,7 +19196,7 @@
         <v>3.7267080745341614</v>
       </c>
     </row>
-    <row r="301" spans="10:19">
+    <row r="301" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J301" s="1">
         <v>297</v>
       </c>
@@ -17893,7 +19232,7 @@
         <v>3.9755351681957185</v>
       </c>
     </row>
-    <row r="302" spans="10:19">
+    <row r="302" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J302" s="1">
         <v>298</v>
       </c>
@@ -17929,7 +19268,7 @@
         <v>2.1212121212121211</v>
       </c>
     </row>
-    <row r="303" spans="10:19">
+    <row r="303" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J303" s="1">
         <v>299</v>
       </c>
@@ -17965,7 +19304,7 @@
         <v>1.2012012012012012</v>
       </c>
     </row>
-    <row r="304" spans="10:19">
+    <row r="304" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J304" s="1">
         <v>300</v>
       </c>
@@ -18001,7 +19340,7 @@
         <v>6.0060060060060056</v>
       </c>
     </row>
-    <row r="305" spans="10:19">
+    <row r="305" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J305" s="1">
         <v>301</v>
       </c>
@@ -18037,7 +19376,7 @@
         <v>7.5528700906344408</v>
       </c>
     </row>
-    <row r="306" spans="10:19">
+    <row r="306" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J306" s="1">
         <v>302</v>
       </c>
@@ -18073,7 +19412,7 @@
         <v>8.2317073170731714</v>
       </c>
     </row>
-    <row r="307" spans="10:19">
+    <row r="307" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J307" s="1">
         <v>303</v>
       </c>
@@ -18109,7 +19448,7 @@
         <v>6.4024390243902438</v>
       </c>
     </row>
-    <row r="308" spans="10:19">
+    <row r="308" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J308" s="1">
         <v>304</v>
       </c>
@@ -18145,7 +19484,7 @@
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="309" spans="10:19">
+    <row r="309" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J309" s="1">
         <v>305</v>
       </c>
@@ -18181,7 +19520,7 @@
         <v>2.4844720496894408</v>
       </c>
     </row>
-    <row r="310" spans="10:19">
+    <row r="310" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J310" s="1">
         <v>306</v>
       </c>
@@ -18217,7 +19556,7 @@
         <v>1.5625</v>
       </c>
     </row>
-    <row r="311" spans="10:19">
+    <row r="311" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J311" s="1">
         <v>307</v>
       </c>
@@ -18253,7 +19592,7 @@
         <v>1.2618296529968454</v>
       </c>
     </row>
-    <row r="312" spans="10:19">
+    <row r="312" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J312" s="1">
         <v>308</v>
       </c>
@@ -18289,7 +19628,7 @@
         <v>0.31746031746031744</v>
       </c>
     </row>
-    <row r="313" spans="10:19">
+    <row r="313" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J313" s="1">
         <v>309</v>
       </c>
@@ -18325,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="10:19">
+    <row r="314" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J314" s="1">
         <v>310</v>
       </c>
@@ -18361,7 +19700,7 @@
         <v>0.32573289902280128</v>
       </c>
     </row>
-    <row r="315" spans="10:19">
+    <row r="315" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J315" s="1">
         <v>311</v>
       </c>
@@ -18397,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="10:19">
+    <row r="316" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J316" s="1">
         <v>312</v>
       </c>

--- a/Assignment 1/final_plot-w.xlsx
+++ b/Assignment 1/final_plot-w.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE76BB03-C43F-4376-9AF6-C6FED7E6661C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B88D3D-B9DA-4330-8D9B-D600DA06C42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5863,13 +5860,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.5</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7954,72 +7951,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="final_plot"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>train_average_accuracy</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>test_average_accuracy</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0.1</v>
-          </cell>
-          <cell r="C43">
-            <v>98.2834</v>
-          </cell>
-          <cell r="E43">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0.3</v>
-          </cell>
-          <cell r="C44">
-            <v>98.756299999999982</v>
-          </cell>
-          <cell r="E44">
-            <v>97.5</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0.5</v>
-          </cell>
-          <cell r="C45">
-            <v>98.851700000000008</v>
-          </cell>
-          <cell r="E45">
-            <v>97.5</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>0.8</v>
-          </cell>
-          <cell r="C46">
-            <v>98.886899999999983</v>
-          </cell>
-          <cell r="E46">
-            <v>98.5</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
@@ -8319,8 +8250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9845,7 +9776,7 @@
       </c>
       <c r="E43">
         <f>SUM(F45,G46)*100/SUM(F45:G46)</f>
-        <v>98.5</v>
+        <v>81</v>
       </c>
       <c r="J43" s="1">
         <v>39</v>
@@ -9894,7 +9825,7 @@
       </c>
       <c r="E44">
         <f>SUM(F49,G50)*100/SUM(F49:G50)</f>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="J44" s="1">
         <v>40</v>
@@ -9943,13 +9874,13 @@
       </c>
       <c r="E45">
         <f>SUM(F52,G53)*100/SUM(F51:G53)</f>
-        <v>97.5</v>
+        <v>79</v>
       </c>
       <c r="F45">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J45" s="1">
         <v>41</v>
@@ -9988,10 +9919,10 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F46">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J46" s="1">
         <v>42</v>
@@ -10101,11 +10032,11 @@
       </c>
     </row>
     <row r="49" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F49" s="1">
-        <v>97</v>
+      <c r="F49">
+        <v>72</v>
       </c>
       <c r="G49" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J49" s="1">
         <v>45</v>
@@ -10144,10 +10075,10 @@
     </row>
     <row r="50" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F50" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J50" s="1">
         <v>46</v>
@@ -10222,10 +10153,10 @@
     </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F52" s="1">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G52" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J52" s="1">
         <v>48</v>
@@ -10264,10 +10195,10 @@
     </row>
     <row r="53" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F53" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G53" s="1">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J53" s="1">
         <v>49</v>

--- a/Assignment 1/final_plot-w.xlsx
+++ b/Assignment 1/final_plot-w.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B88D3D-B9DA-4330-8D9B-D600DA06C42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCEAE9-AB00-44D3-8EE3-7219D500ECDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
@@ -5737,13 +5737,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98.886899999999983</c:v>
+                  <c:v>84.886899999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.800299999999993</c:v>
+                  <c:v>79.800299999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.817599999999999</c:v>
+                  <c:v>79.817599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8251,7 +8251,7 @@
   <dimension ref="A2:S316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9769,7 +9769,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="4">
-        <v>98.886899999999983</v>
+        <v>84.886899999999997</v>
       </c>
       <c r="D43" s="4">
         <v>98.397160892323114</v>
@@ -9818,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="4">
-        <v>98.800299999999993</v>
+        <v>79.800299999999993</v>
       </c>
       <c r="D44" s="4">
         <v>98.524539546953989</v>
@@ -9867,7 +9867,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="4">
-        <v>98.817599999999999</v>
+        <v>79.817599999999999</v>
       </c>
       <c r="D45" s="1">
         <v>98.175073970798607</v>
